--- a/Testdata/Mentorship Test Data.xlsx
+++ b/Testdata/Mentorship Test Data.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="482" uniqueCount="294">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="484" uniqueCount="297">
   <si>
     <t>testCaseId</t>
   </si>
@@ -823,6 +823,9 @@
     <t>CampaignUrl</t>
   </si>
   <si>
+    <t>Highlight Text</t>
+  </si>
+  <si>
     <t>Course Campaign Creation</t>
   </si>
   <si>
@@ -838,7 +841,7 @@
     <t>BTWIN</t>
   </si>
   <si>
-    <t>Something</t>
+    <t>A vibrant and welcoming space that blends modern design with comfort. The atmosphere is lively yet relaxed, making it perfect for collaboration, creativity, or just unwinding. Every detail is thoughtfully crafted to create a balance between functionality and aesthetics."</t>
   </si>
   <si>
     <t xml:space="preserve">2026-10-09
@@ -898,6 +901,9 @@
     <t>accounts</t>
   </si>
   <si>
+    <t>Ahmedabad</t>
+  </si>
+  <si>
     <t>promilo</t>
   </si>
   <si>
@@ -905,6 +911,9 @@
   </si>
   <si>
     <t>Engineering (B.E. / B.Tech)</t>
+  </si>
+  <si>
+    <t>something</t>
   </si>
 </sst>
 </file>
@@ -913,35 +922,35 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="28">
     <numFmt numFmtId="6" formatCode="&quot;$&quot;#,##0_);[Red]\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="176" formatCode="mmmm\-yy"/>
-    <numFmt numFmtId="177" formatCode="m/d/yy\ h:mm"/>
+    <numFmt numFmtId="176" formatCode="mmmmm"/>
+    <numFmt numFmtId="177" formatCode="mmmm\-yy"/>
+    <numFmt numFmtId="178" formatCode="m/d/yy\ h:mm"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="179" formatCode="m/d"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="180" formatCode="#\ ?/?"/>
+    <numFmt numFmtId="181" formatCode="#\ ??/??"/>
+    <numFmt numFmtId="182" formatCode="dddd"/>
+    <numFmt numFmtId="183" formatCode="d\-mmm\-yyyy"/>
+    <numFmt numFmtId="184" formatCode="h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
+    <numFmt numFmtId="185" formatCode="dd\-mmm\-yy"/>
+    <numFmt numFmtId="186" formatCode="dddd\,\ mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="187" formatCode="mm/dd/yy"/>
+    <numFmt numFmtId="188" formatCode="mmmmm\-yy"/>
     <numFmt numFmtId="5" formatCode="&quot;$&quot;#,##0_);\(&quot;$&quot;#,##0\)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="178" formatCode="m/d/yy\ h:mm\ AM/PM"/>
-    <numFmt numFmtId="7" formatCode="&quot;$&quot;#,##0.00_);\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
-    <numFmt numFmtId="179" formatCode="#\ ?/?"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="180" formatCode="#\ ??"/>
-    <numFmt numFmtId="181" formatCode="ddd"/>
-    <numFmt numFmtId="182" formatCode="h:mm\ AM/PM"/>
-    <numFmt numFmtId="183" formatCode="d\-mmm\-yyyy"/>
-    <numFmt numFmtId="184" formatCode="#\ ??/??"/>
-    <numFmt numFmtId="185" formatCode="m/d"/>
-    <numFmt numFmtId="186" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="187" formatCode="dd\-mmm\-yy"/>
-    <numFmt numFmtId="188" formatCode="dddd"/>
-    <numFmt numFmtId="189" formatCode="mmmmm"/>
-    <numFmt numFmtId="190" formatCode="mmmmm\-yy"/>
-    <numFmt numFmtId="191" formatCode="dddd\,\ mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="192" formatCode="h:mm:ss\ AM/PM"/>
-    <numFmt numFmtId="193" formatCode="mm/dd/yy"/>
-    <numFmt numFmtId="194" formatCode="dddd\,\ mmm\ dd\,\ yyyy"/>
-    <numFmt numFmtId="195" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="189" formatCode="h:mm\ AM/PM"/>
+    <numFmt numFmtId="190" formatCode="ddd"/>
+    <numFmt numFmtId="191" formatCode="m/d/yy\ h:mm\ AM/PM"/>
+    <numFmt numFmtId="192" formatCode="dddd\,\ mmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="193" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="194" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="195" formatCode="#\ ??"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="31">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -964,6 +973,12 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Consolas"/>
+      <charset val="134"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -971,9 +986,9 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Consolas"/>
+      <sz val="9.45"/>
+      <color rgb="FF6E6B7B"/>
+      <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1024,17 +1039,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1042,13 +1048,6 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1072,21 +1071,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -1095,7 +1079,21 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1109,6 +1107,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="Calibri"/>
@@ -1116,16 +1122,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1140,23 +1161,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1175,7 +1190,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1187,13 +1226,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1205,25 +1310,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1235,121 +1364,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1388,7 +1403,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1408,13 +1423,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1434,6 +1453,35 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -1448,190 +1496,157 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="26" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="193" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="186" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="195" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="18" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="194" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1650,10 +1665,16 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1665,16 +1686,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="48" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
@@ -1683,28 +1701,28 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="48" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="48" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="48" applyFont="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="48" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="58" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" quotePrefix="1">
@@ -2106,178 +2124,178 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:38">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18" t="s">
+      <c r="B1" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="I1" s="21" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="20" t="s">
+      <c r="J1" s="21" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="20" t="s">
+      <c r="K1" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="20" t="s">
+      <c r="L1" s="21" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="20" t="s">
+      <c r="M1" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="6" t="s">
+      <c r="P1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="6" t="s">
+      <c r="Q1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="6" t="s">
+      <c r="R1" s="7" t="s">
         <v>17</v>
       </c>
       <c r="S1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="14" t="s">
+      <c r="T1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="14" t="s">
+      <c r="U1" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="6" t="s">
+      <c r="V1" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="6" t="s">
+      <c r="W1" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="6" t="s">
+      <c r="X1" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="6" t="s">
+      <c r="Y1" s="7" t="s">
         <v>24</v>
       </c>
       <c r="Z1" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="6" t="s">
+      <c r="AA1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="17" t="s">
+      <c r="AB1" s="18" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="6" t="s">
+      <c r="AC1" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="6" t="s">
+      <c r="AD1" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="6" t="s">
+      <c r="AE1" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="6" t="s">
+      <c r="AF1" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="6" t="s">
+      <c r="AG1" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="6" t="s">
+      <c r="AH1" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="14" t="s">
+      <c r="AI1" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="18" t="s">
+      <c r="AJ1" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="18" t="s">
+      <c r="AK1" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="18" t="s">
+      <c r="AL1" s="19" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:15">
-      <c r="A2" s="17" t="s">
+      <c r="A2" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="17" t="s">
+      <c r="B2" s="18" t="s">
         <v>39</v>
       </c>
-      <c r="H2" s="17" t="s">
+      <c r="H2" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I2" s="17" t="s">
+      <c r="I2" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J2" s="17" t="s">
+      <c r="J2" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="17" t="s">
+      <c r="K2" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L2" s="17" t="s">
+      <c r="L2" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M2" s="17" t="s">
+      <c r="M2" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="N2" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="18" t="s">
         <v>49</v>
       </c>
       <c r="F3">
         <v>1234</v>
       </c>
-      <c r="P3" s="17" t="s">
+      <c r="P3" s="18" t="s">
         <v>50</v>
       </c>
       <c r="Q3">
         <v>90000</v>
       </c>
-      <c r="R3" s="7" t="s">
+      <c r="R3" s="8" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="17" t="s">
+      <c r="A4" s="18" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="18" t="s">
         <v>52</v>
       </c>
       <c r="H4" t="s">
@@ -2304,104 +2322,104 @@
       <c r="O4" t="s">
         <v>47</v>
       </c>
-      <c r="P4" s="17"/>
-      <c r="R4" s="7"/>
+      <c r="P4" s="18"/>
+      <c r="R4" s="8"/>
     </row>
     <row r="5" ht="409.5" spans="1:26">
-      <c r="A5" s="6" t="s">
+      <c r="A5" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="I5" s="6" t="s">
+      <c r="E5" s="7"/>
+      <c r="I5" s="7" t="s">
         <v>55</v>
       </c>
       <c r="N5" t="s">
         <v>56</v>
       </c>
-      <c r="S5" s="21" t="s">
+      <c r="S5" s="22" t="s">
         <v>57</v>
       </c>
-      <c r="T5" s="14" t="s">
+      <c r="T5" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="U5" s="14" t="s">
+      <c r="U5" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="V5" s="6" t="s">
+      <c r="V5" s="7" t="s">
         <v>60</v>
       </c>
       <c r="W5" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="23" t="s">
         <v>62</v>
       </c>
-      <c r="Z5" s="14" t="s">
+      <c r="Z5" s="6" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="6" t="s">
         <v>65</v>
       </c>
-      <c r="H6" s="17" t="s">
+      <c r="H6" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I6" s="17" t="s">
+      <c r="I6" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J6" s="17" t="s">
+      <c r="J6" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K6" s="17" t="s">
+      <c r="K6" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L6" s="17" t="s">
+      <c r="L6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="18" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="7" spans="1:34">
-      <c r="A7" s="6" t="s">
+      <c r="A7" s="7" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="7" t="s">
         <v>67</v>
       </c>
       <c r="C7"/>
-      <c r="D7" s="6" t="s">
+      <c r="D7" s="7" t="s">
         <v>68</v>
       </c>
       <c r="S7" t="s">
         <v>57</v>
       </c>
-      <c r="Y7" s="17" t="s">
+      <c r="Y7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="AA7" s="23">
+      <c r="AA7" s="24">
         <v>37492</v>
       </c>
-      <c r="AB7" s="24" t="s">
+      <c r="AB7" s="25" t="s">
         <v>70</v>
       </c>
-      <c r="AC7" s="6" t="s">
+      <c r="AC7" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="AD7" s="6" t="s">
+      <c r="AD7" s="7" t="s">
         <v>72</v>
       </c>
       <c r="AE7" t="s">
         <v>73</v>
       </c>
-      <c r="AF7" s="17" t="s">
+      <c r="AF7" s="18" t="s">
         <v>74</v>
       </c>
       <c r="AG7" t="s">
@@ -2412,24 +2430,24 @@
       </c>
     </row>
     <row r="8" spans="1:14">
-      <c r="A8" s="17" t="s">
+      <c r="A8" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="18" t="s">
         <v>78</v>
       </c>
       <c r="F8">
         <v>9999</v>
       </c>
-      <c r="N8" s="6" t="s">
+      <c r="N8" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:38">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="6" t="s">
         <v>79</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="6" t="s">
         <v>79</v>
       </c>
       <c r="C9" s="2">
@@ -2445,40 +2463,40 @@
         <v>82</v>
       </c>
       <c r="G9" s="2"/>
-      <c r="H9" s="17" t="s">
+      <c r="H9" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I9" s="17" t="s">
+      <c r="I9" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J9" s="17" t="s">
+      <c r="J9" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K9" s="17" t="s">
+      <c r="K9" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L9" s="17" t="s">
+      <c r="L9" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M9" s="17" t="s">
+      <c r="M9" s="18" t="s">
         <v>45</v>
       </c>
-      <c r="N9" s="17"/>
-      <c r="AJ9" s="6" t="s">
+      <c r="N9" s="18"/>
+      <c r="AJ9" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="AK9" s="6" t="s">
+      <c r="AK9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="7" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="10" customFormat="1" spans="1:13">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="6" t="s">
         <v>64</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="6" t="s">
         <v>65</v>
       </c>
       <c r="C10"/>
@@ -2486,22 +2504,22 @@
       <c r="E10"/>
       <c r="F10"/>
       <c r="G10"/>
-      <c r="H10" s="17" t="s">
+      <c r="H10" s="18" t="s">
         <v>40</v>
       </c>
-      <c r="I10" s="17" t="s">
+      <c r="I10" s="18" t="s">
         <v>41</v>
       </c>
-      <c r="J10" s="17" t="s">
+      <c r="J10" s="18" t="s">
         <v>42</v>
       </c>
-      <c r="K10" s="17" t="s">
+      <c r="K10" s="18" t="s">
         <v>43</v>
       </c>
-      <c r="L10" s="17" t="s">
+      <c r="L10" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="M10" s="17" t="s">
+      <c r="M10" s="18" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2841,10 +2859,10 @@
       <c r="BB1" s="1" t="s">
         <v>130</v>
       </c>
-      <c r="BC1" s="18" t="s">
+      <c r="BC1" s="19" t="s">
         <v>131</v>
       </c>
-      <c r="BD1" s="18" t="s">
+      <c r="BD1" s="19" t="s">
         <v>3</v>
       </c>
     </row>
@@ -2888,7 +2906,7 @@
       <c r="M2" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="26" t="s">
         <v>136</v>
       </c>
       <c r="O2" s="2" t="s">
@@ -2906,10 +2924,10 @@
       <c r="S2" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="26" t="s">
         <v>141</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="26" t="s">
         <v>142</v>
       </c>
       <c r="V2" s="2" t="s">
@@ -3017,13 +3035,13 @@
       <c r="A3" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="6" t="s">
         <v>164</v>
       </c>
-      <c r="BC3" s="17" t="s">
+      <c r="BC3" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="BD3" s="17" t="s">
+      <c r="BD3" s="18" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3031,13 +3049,13 @@
       <c r="A4" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="6" t="s">
         <v>168</v>
       </c>
-      <c r="BC4" s="17" t="s">
+      <c r="BC4" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="BD4" s="19" t="s">
+      <c r="BD4" s="20" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3045,13 +3063,13 @@
       <c r="A5" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="6" t="s">
         <v>170</v>
       </c>
-      <c r="BC5" s="17" t="s">
+      <c r="BC5" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="BD5" s="17" t="s">
+      <c r="BD5" s="18" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3059,13 +3077,13 @@
       <c r="A6" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="6" t="s">
         <v>172</v>
       </c>
-      <c r="BC6" s="17" t="s">
+      <c r="BC6" s="18" t="s">
         <v>165</v>
       </c>
-      <c r="BD6" s="7" t="s">
+      <c r="BD6" s="8" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3073,13 +3091,13 @@
       <c r="A7" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="BC7" s="19" t="s">
+      <c r="BC7" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="BD7" s="17" t="s">
+      <c r="BD7" s="18" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3096,10 +3114,10 @@
       <c r="W8" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="BC8" s="19" t="s">
+      <c r="BC8" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="BD8" s="17" t="s">
+      <c r="BD8" s="18" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3107,13 +3125,13 @@
       <c r="A9" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>179</v>
       </c>
-      <c r="BC9" s="19" t="s">
+      <c r="BC9" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="BD9" s="17" t="s">
+      <c r="BD9" s="18" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3121,13 +3139,13 @@
       <c r="A10" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="B10" s="14" t="s">
+      <c r="B10" s="6" t="s">
         <v>181</v>
       </c>
-      <c r="BC10" s="19" t="s">
+      <c r="BC10" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="BD10" s="17" t="s">
+      <c r="BD10" s="18" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3135,13 +3153,13 @@
       <c r="A11" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="14" t="s">
+      <c r="B11" s="6" t="s">
         <v>183</v>
       </c>
-      <c r="BC11" s="19" t="s">
+      <c r="BC11" s="20" t="s">
         <v>175</v>
       </c>
-      <c r="BD11" s="17" t="s">
+      <c r="BD11" s="18" t="s">
         <v>166</v>
       </c>
     </row>
@@ -3200,694 +3218,694 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="8" t="s">
+      <c r="G1" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="H1" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="I1" s="8" t="s">
+      <c r="I1" s="10" t="s">
         <v>189</v>
       </c>
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="K1" s="8" t="s">
+      <c r="K1" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="L1" s="8" t="s">
+      <c r="L1" s="10" t="s">
         <v>192</v>
       </c>
-      <c r="M1" s="8" t="s">
+      <c r="M1" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="N1" s="16" t="s">
+      <c r="N1" s="17" t="s">
         <v>194</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="O1" s="7" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" ht="150" spans="1:15">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="11" t="s">
         <v>195</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="C2" s="9"/>
-      <c r="D2" s="9"/>
-      <c r="E2" s="10" t="s">
+      <c r="C2" s="11"/>
+      <c r="D2" s="11"/>
+      <c r="E2" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F2" s="9">
+      <c r="F2" s="11">
         <v>9999</v>
       </c>
-      <c r="G2" s="9" t="s">
+      <c r="G2" s="11" t="s">
         <v>196</v>
       </c>
-      <c r="H2" s="9" t="s">
+      <c r="H2" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="I2" s="9" t="s">
+      <c r="I2" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J2" s="9">
+      <c r="J2" s="11">
         <v>560057</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="M2" s="9">
+      <c r="M2" s="11">
         <v>9000098765</v>
       </c>
-      <c r="N2" s="10" t="s">
+      <c r="N2" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="O2" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="3" ht="150" spans="1:15">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="10" t="s">
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="11">
         <v>9999</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>203</v>
       </c>
-      <c r="H3" s="9" t="s">
+      <c r="H3" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="I3" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J3" s="9">
+      <c r="J3" s="11">
         <v>560057</v>
       </c>
-      <c r="K3" s="9" t="s">
+      <c r="K3" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="L3" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="M3" s="9">
+      <c r="M3" s="11">
         <v>9000098765</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="4" ht="150" spans="1:15">
-      <c r="A4" s="10" t="s">
+      <c r="A4" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="13" t="s">
         <v>205</v>
       </c>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="15" t="s">
+      <c r="C4" s="14"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="16" t="s">
         <v>206</v>
       </c>
-      <c r="F4" s="12">
+      <c r="F4" s="14">
         <v>9999</v>
       </c>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-      <c r="K4" s="12"/>
-      <c r="L4" s="12"/>
-      <c r="M4" s="12"/>
-      <c r="N4" s="10" t="s">
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
+      <c r="J4" s="14"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="14"/>
+      <c r="M4" s="14"/>
+      <c r="N4" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="O4" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="10" t="s">
+      <c r="A5" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="13" t="s">
         <v>208</v>
       </c>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="10" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="14"/>
+      <c r="E5" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F5" s="12">
+      <c r="F5" s="14">
         <v>9999</v>
       </c>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="6" t="s">
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
+      <c r="J5" s="14"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="14"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="14"/>
+      <c r="O5" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="10" t="s">
+      <c r="A6" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="B6" s="12" t="s">
+      <c r="B6" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="C6" s="12"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="10" t="s">
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F6" s="12">
+      <c r="F6" s="14">
         <v>9999</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="14" t="s">
         <v>210</v>
       </c>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-      <c r="K6" s="12"/>
-      <c r="L6" s="12"/>
-      <c r="M6" s="12"/>
-      <c r="N6" s="12"/>
-      <c r="O6" s="6" t="s">
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="14"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="14"/>
+      <c r="O6" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="10" t="s">
+      <c r="A7" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="10" t="s">
+      <c r="C7" s="14"/>
+      <c r="D7" s="14"/>
+      <c r="E7" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F7" s="12">
+      <c r="F7" s="14">
         <v>9999</v>
       </c>
-      <c r="G7" s="11" t="s">
+      <c r="G7" s="13" t="s">
         <v>212</v>
       </c>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="6" t="s">
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
+      <c r="J7" s="14"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="14"/>
+      <c r="M7" s="14"/>
+      <c r="N7" s="14"/>
+      <c r="O7" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="8" ht="150" spans="1:15">
-      <c r="A8" s="10" t="s">
+      <c r="A8" s="12" t="s">
         <v>213</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="10" t="s">
+      <c r="C8" s="14"/>
+      <c r="D8" s="14"/>
+      <c r="E8" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F8" s="12">
+      <c r="F8" s="14">
         <v>9999</v>
       </c>
-      <c r="G8" s="11" t="s">
+      <c r="G8" s="13" t="s">
         <v>214</v>
       </c>
-      <c r="H8" s="12" t="s">
+      <c r="H8" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="I8" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J8" s="12">
+      <c r="J8" s="14">
         <v>560057</v>
       </c>
-      <c r="K8" s="9" t="s">
+      <c r="K8" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L8" s="9" t="s">
+      <c r="L8" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="M8" s="9">
+      <c r="M8" s="11">
         <v>9000098765</v>
       </c>
-      <c r="N8" s="10" t="s">
+      <c r="N8" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="O8" s="6" t="s">
+      <c r="O8" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="12" t="s">
         <v>215</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="10" t="s">
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F9" s="12">
+      <c r="F9" s="14">
         <v>9999</v>
       </c>
-      <c r="G9" s="11" t="s">
+      <c r="G9" s="13" t="s">
         <v>216</v>
       </c>
-      <c r="H9" s="12" t="s">
+      <c r="H9" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I9" s="9" t="s">
+      <c r="I9" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J9" s="12">
+      <c r="J9" s="14">
         <v>560057</v>
       </c>
-      <c r="K9" s="9" t="s">
+      <c r="K9" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L9" s="9" t="s">
+      <c r="L9" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="M9" s="9">
+      <c r="M9" s="11">
         <v>9000098765</v>
       </c>
-      <c r="N9" s="12"/>
-      <c r="O9" s="6" t="s">
+      <c r="N9" s="14"/>
+      <c r="O9" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="10" t="s">
+      <c r="A10" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="C10" s="12"/>
-      <c r="D10" s="13" t="s">
+      <c r="C10" s="14"/>
+      <c r="D10" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="10" t="s">
+      <c r="E10" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F10" s="12">
+      <c r="F10" s="14">
         <v>9999</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="H10" s="12"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="12"/>
-      <c r="K10" s="12"/>
-      <c r="L10" s="12"/>
-      <c r="M10" s="12"/>
-      <c r="N10" s="12"/>
-      <c r="O10" s="6" t="s">
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="J10" s="14"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="14"/>
+      <c r="M10" s="14"/>
+      <c r="N10" s="14"/>
+      <c r="O10" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="12" t="s">
         <v>219</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="C11" s="12"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="10" t="s">
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F11" s="12">
+      <c r="F11" s="14">
         <v>9999</v>
       </c>
-      <c r="G11" s="11" t="s">
+      <c r="G11" s="13" t="s">
         <v>220</v>
       </c>
-      <c r="H11" s="12" t="s">
+      <c r="H11" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I11" s="9" t="s">
+      <c r="I11" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J11" s="12">
+      <c r="J11" s="14">
         <v>560057</v>
       </c>
-      <c r="K11" s="9" t="s">
+      <c r="K11" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L11" s="9" t="s">
+      <c r="L11" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="M11" s="9">
+      <c r="M11" s="11">
         <v>9000098765</v>
       </c>
-      <c r="N11" s="12"/>
-      <c r="O11" s="6" t="s">
+      <c r="N11" s="14"/>
+      <c r="O11" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="12" t="s">
         <v>221</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="10" t="s">
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F12" s="12">
+      <c r="F12" s="14">
         <v>9999</v>
       </c>
-      <c r="G12" s="11" t="s">
+      <c r="G12" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="H12" s="12" t="s">
+      <c r="H12" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I12" s="9" t="s">
+      <c r="I12" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J12" s="12">
+      <c r="J12" s="14">
         <v>560057</v>
       </c>
-      <c r="K12" s="9" t="s">
+      <c r="K12" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L12" s="9" t="s">
+      <c r="L12" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="M12" s="9">
+      <c r="M12" s="11">
         <v>9000098765</v>
       </c>
-      <c r="N12" s="12"/>
-      <c r="O12" s="6" t="s">
+      <c r="N12" s="14"/>
+      <c r="O12" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="10" t="s">
+      <c r="A13" s="12" t="s">
         <v>223</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="C13" s="12"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="10" t="s">
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F13" s="12">
+      <c r="F13" s="14">
         <v>9999</v>
       </c>
-      <c r="G13" s="11" t="s">
+      <c r="G13" s="13" t="s">
         <v>224</v>
       </c>
-      <c r="H13" s="12" t="s">
+      <c r="H13" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I13" s="9" t="s">
+      <c r="I13" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J13" s="12">
+      <c r="J13" s="14">
         <v>560057</v>
       </c>
-      <c r="K13" s="9" t="s">
+      <c r="K13" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L13" s="9" t="s">
+      <c r="L13" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="M13" s="9">
+      <c r="M13" s="11">
         <v>9000098765</v>
       </c>
-      <c r="N13" s="12"/>
-      <c r="O13" s="6" t="s">
+      <c r="N13" s="14"/>
+      <c r="O13" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="10" t="s">
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F14" s="12">
+      <c r="F14" s="14">
         <v>9999</v>
       </c>
-      <c r="G14" s="11" t="s">
+      <c r="G14" s="13" t="s">
         <v>226</v>
       </c>
-      <c r="H14" s="12" t="s">
+      <c r="H14" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I14" s="9" t="s">
+      <c r="I14" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J14" s="12">
+      <c r="J14" s="14">
         <v>560057</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L14" s="9" t="s">
+      <c r="L14" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="M14" s="9">
+      <c r="M14" s="11">
         <v>9000098765</v>
       </c>
-      <c r="N14" s="12"/>
-      <c r="O14" s="6" t="s">
+      <c r="N14" s="14"/>
+      <c r="O14" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="13" t="s">
         <v>228</v>
       </c>
-      <c r="C15" s="12"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="10" t="s">
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F15" s="12">
+      <c r="F15" s="14">
         <v>9999</v>
       </c>
-      <c r="G15" s="15" t="s">
+      <c r="G15" s="16" t="s">
         <v>228</v>
       </c>
-      <c r="H15" s="12" t="s">
+      <c r="H15" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I15" s="9" t="s">
+      <c r="I15" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J15" s="12">
+      <c r="J15" s="14">
         <v>560057</v>
       </c>
-      <c r="K15" s="9" t="s">
+      <c r="K15" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L15" s="9" t="s">
+      <c r="L15" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="M15" s="9">
+      <c r="M15" s="11">
         <v>9000098765</v>
       </c>
-      <c r="N15" s="12"/>
-      <c r="O15" s="6" t="s">
+      <c r="N15" s="14"/>
+      <c r="O15" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="12" t="s">
         <v>229</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="C16" s="12"/>
-      <c r="D16" s="13" t="s">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="E16" s="10" t="s">
+      <c r="E16" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F16" s="12">
+      <c r="F16" s="14">
         <v>9999</v>
       </c>
-      <c r="G16" s="11" t="s">
+      <c r="G16" s="13" t="s">
         <v>230</v>
       </c>
-      <c r="H16" s="12" t="s">
+      <c r="H16" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I16" s="9" t="s">
+      <c r="I16" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J16" s="12">
+      <c r="J16" s="14">
         <v>560057</v>
       </c>
-      <c r="K16" s="9" t="s">
+      <c r="K16" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L16" s="9" t="s">
+      <c r="L16" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="M16" s="9">
+      <c r="M16" s="11">
         <v>9000098765</v>
       </c>
-      <c r="N16" s="12"/>
-      <c r="O16" s="6" t="s">
+      <c r="N16" s="14"/>
+      <c r="O16" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:15">
-      <c r="A17" s="10" t="s">
+      <c r="A17" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="10" t="s">
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="F17" s="12">
+      <c r="F17" s="14">
         <v>9999</v>
       </c>
-      <c r="G17" s="11" t="s">
+      <c r="G17" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="H17" s="12" t="s">
+      <c r="H17" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I17" s="9" t="s">
+      <c r="I17" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J17" s="12">
+      <c r="J17" s="14">
         <v>560057</v>
       </c>
-      <c r="K17" s="9" t="s">
+      <c r="K17" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L17" s="9" t="s">
+      <c r="L17" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="M17" s="9">
+      <c r="M17" s="11">
         <v>9000098765</v>
       </c>
-      <c r="N17" s="12"/>
-      <c r="O17" s="6" t="s">
+      <c r="N17" s="14"/>
+      <c r="O17" s="7" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="18" ht="150" spans="1:15">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="B18" s="14" t="s">
+      <c r="B18" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="E18" s="10" t="s">
+      <c r="E18" s="12" t="s">
         <v>197</v>
       </c>
       <c r="F18">
         <v>9999</v>
       </c>
-      <c r="G18" s="14" t="s">
+      <c r="G18" s="6" t="s">
         <v>234</v>
       </c>
-      <c r="H18" s="12" t="s">
+      <c r="H18" s="14" t="s">
         <v>156</v>
       </c>
-      <c r="I18" s="9" t="s">
+      <c r="I18" s="11" t="s">
         <v>198</v>
       </c>
-      <c r="J18" s="12">
+      <c r="J18" s="14">
         <v>560057</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="L18" s="9" t="s">
+      <c r="L18" s="11" t="s">
         <v>200</v>
       </c>
-      <c r="M18" s="9">
+      <c r="M18" s="11">
         <v>9000098765</v>
       </c>
-      <c r="N18" s="10" t="s">
+      <c r="N18" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="O18" s="6" t="s">
+      <c r="O18" s="7" t="s">
         <v>155</v>
       </c>
     </row>
@@ -3906,7 +3924,7 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:AP2"/>
+  <dimension ref="A1:AQ2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3926,11 +3944,13 @@
     <col min="14" max="14" width="60.1428571428571" customWidth="1"/>
     <col min="15" max="15" width="55.8571428571429" customWidth="1"/>
     <col min="17" max="18" width="38.2857142857143" customWidth="1"/>
+    <col min="37" max="37" width="21.1428571428571" customWidth="1"/>
     <col min="41" max="41" width="33.8571428571429" customWidth="1"/>
     <col min="42" max="42" width="28.2857142857143" customWidth="1"/>
+    <col min="43" max="43" width="20.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="30" spans="1:42">
+    <row r="1" ht="30" spans="1:43">
       <c r="A1" s="1" t="s">
         <v>186</v>
       </c>
@@ -4054,64 +4074,67 @@
       <c r="AO1" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="AP1" s="6" t="s">
+      <c r="AP1" s="7" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="2" ht="45" spans="1:42">
+      <c r="AQ1" s="7" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="2" ht="210" spans="1:43">
       <c r="A2" s="2">
         <v>1</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>166</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="H2" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="H2" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="J2" s="25" t="s">
-        <v>273</v>
+      <c r="I2" s="26" t="s">
+        <v>274</v>
+      </c>
+      <c r="J2" s="26" t="s">
+        <v>274</v>
       </c>
       <c r="K2" s="2">
         <v>3</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>278</v>
-      </c>
-      <c r="Q2" s="25" t="s">
         <v>279</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="Q2" s="26" t="s">
         <v>280</v>
+      </c>
+      <c r="R2" s="26" t="s">
+        <v>281</v>
       </c>
       <c r="S2" s="2" t="s">
         <v>159</v>
@@ -4123,43 +4146,43 @@
         <v>148</v>
       </c>
       <c r="V2" s="2" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="W2" s="2">
         <v>1000</v>
       </c>
       <c r="X2" s="2" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Y2" s="2" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="Z2" s="2" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="AA2" s="2" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AB2" s="2">
         <v>12345678901</v>
       </c>
       <c r="AC2" s="2" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="AD2" s="2" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="AE2" s="2" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="AF2" s="2" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AG2" s="2" t="s">
         <v>162</v>
       </c>
       <c r="AH2" s="2" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="AI2" s="2">
         <v>20</v>
@@ -4167,8 +4190,8 @@
       <c r="AJ2" s="2">
         <v>29</v>
       </c>
-      <c r="AK2" s="2" t="s">
-        <v>148</v>
+      <c r="AK2" s="6" t="s">
+        <v>292</v>
       </c>
       <c r="AL2" s="2">
         <v>450000</v>
@@ -4176,14 +4199,17 @@
       <c r="AM2" s="2">
         <v>6500008</v>
       </c>
-      <c r="AN2" s="6" t="s">
-        <v>291</v>
-      </c>
-      <c r="AO2" s="7" t="s">
-        <v>292</v>
+      <c r="AN2" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="AO2" s="8" t="s">
+        <v>294</v>
       </c>
       <c r="AP2" t="s">
-        <v>293</v>
+        <v>295</v>
+      </c>
+      <c r="AQ2" s="9" t="s">
+        <v>296</v>
       </c>
     </row>
   </sheetData>
